--- a/biology/Botanique/J.M.Coult/J.M.Coult..xlsx
+++ b/biology/Botanique/J.M.Coult/J.M.Coult..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Merle Coulter est un botaniste américain, né le 20 novembre 1851 à Ningbo et mort le 23 décembre 1928 à Yonkers (N.Y.).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le frère du biologiste Stanley Coulter (1853-1943). Il fait ses études au Hanover College (Indiana). Durant deux ans (1872-1873), il est botaniste pour le compte du service de recherche géologique américain. Il enseigne les sciences naturelles au Hanover College, puis la biologie au Wabash College en 1879 et président l’université de l'Indiana de 1891 à 1893, puis de 1893 à 1896, il préside l’université de Lake Forest. En 1896, il quitte cette fonction pour présider le département de botanique de l’Université de Chicago. En 1875, Coulter fonde la Botanical Gazette.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Manual of Rocky Mountain Botany (1885, édition revue en 1909)
 Manual of Texan Botany (1892-93)
